--- a/Data/ANALYSIS OF THE CORRELATION AMONG TRAITS.xlsx
+++ b/Data/ANALYSIS OF THE CORRELATION AMONG TRAITS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>S/N</t>
   </si>
@@ -110,9 +110,6 @@
     <t>0-A-S corm 36</t>
   </si>
   <si>
-    <t>14,04</t>
-  </si>
-  <si>
     <t>0-A-S corm 37</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>ANALYSIS FOR CORRELATION /ASSOCIATION AMONG THESE TRAITS (Correlation matrix)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PH: plant height, NLP: number of leaf/plant, LL: Leaf length, LW: leaf width, NOSTP: Number of stolon/plant, NOSUP: number of suckers/plant, CL: corm length, CC: corm circonference, CW: corm weight, WOCM: weight of cormels,  NOCM: number of cormels/plant, ST: starch content, DM: Dry matter </t>
   </si>
 </sst>
 </file>
@@ -557,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -592,46 +586,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1896,8 +1890,8 @@
       <c r="M29" s="1">
         <v>10</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>28</v>
+      <c r="N29" s="1">
+        <v>14.04</v>
       </c>
       <c r="O29" s="1">
         <v>39.25</v>
@@ -1908,7 +1902,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2">
         <v>33.1</v>
@@ -1955,7 +1949,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2">
         <v>17.25</v>
@@ -2002,7 +1996,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2">
         <v>22.25</v>
@@ -2042,11 +2036,6 @@
       </c>
       <c r="O32" s="1">
         <v>35.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
